--- a/Johy咖啡_新.xlsx
+++ b/Johy咖啡_新.xlsx
@@ -603,7 +603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG65"/>
+  <dimension ref="A1:BG71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="L50" activePane="bottomRight" state="frozen"/>
@@ -13004,8 +13004,6 @@
           <t>2746.50</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
           <t>2746.50</t>
@@ -13107,6 +13105,1160 @@
         </is>
       </c>
       <c r="AR65" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>2746.50</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>2746.50</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG66" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AL66" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AM66" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe单人餐[26.8]</t>
+        </is>
+      </c>
+      <c r="AN66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP66" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe2人餐[108.0]</t>
+        </is>
+      </c>
+      <c r="AQ66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR66" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>2746.50</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>2746.50</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG67" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AM67" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe单人餐[26.8]</t>
+        </is>
+      </c>
+      <c r="AN67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP67" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe2人餐[108.0]</t>
+        </is>
+      </c>
+      <c r="AQ67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>2746.50</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>2746.50</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG68" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AM68" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe单人餐[26.8]</t>
+        </is>
+      </c>
+      <c r="AN68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP68" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe2人餐[108.0]</t>
+        </is>
+      </c>
+      <c r="AQ68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR68" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>2469.30</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>2469.30</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG69" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AM69" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe单人餐[26.8]</t>
+        </is>
+      </c>
+      <c r="AN69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP69" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe2人餐[108.0]</t>
+        </is>
+      </c>
+      <c r="AQ69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR69" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>2469.30</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>2469.30</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG70" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AL70" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AM70" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe单人餐[26.8]</t>
+        </is>
+      </c>
+      <c r="AN70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP70" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe2人餐[108.0]</t>
+        </is>
+      </c>
+      <c r="AQ70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>2469.30</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>2469.30</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG71" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AM71" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe单人餐[26.8]</t>
+        </is>
+      </c>
+      <c r="AN71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP71" t="inlineStr">
+        <is>
+          <t>珠海_Johy Cafe2人餐[108.0]</t>
+        </is>
+      </c>
+      <c r="AQ71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR71" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
